--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H2">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I2">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J2">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>135.2496786500889</v>
+        <v>152.357640891057</v>
       </c>
       <c r="R2">
-        <v>1217.2471078508</v>
+        <v>1371.218768019513</v>
       </c>
       <c r="S2">
-        <v>0.001158442072497331</v>
+        <v>0.001570098353813697</v>
       </c>
       <c r="T2">
-        <v>0.001302664332688096</v>
+        <v>0.001674580925784696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H3">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I3">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J3">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>144.7366371438333</v>
+        <v>184.82827393779</v>
       </c>
       <c r="R3">
-        <v>1302.6297342945</v>
+        <v>1663.45446544011</v>
       </c>
       <c r="S3">
-        <v>0.001239699876352248</v>
+        <v>0.001904719493887786</v>
       </c>
       <c r="T3">
-        <v>0.00139403846813034</v>
+        <v>0.002031469509975192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H4">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I4">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J4">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>72.67699393762221</v>
+        <v>104.344719995068</v>
       </c>
       <c r="R4">
-        <v>654.0929454385999</v>
+        <v>939.1024799556119</v>
       </c>
       <c r="S4">
-        <v>0.0006224938078987421</v>
+        <v>0.001075308544653529</v>
       </c>
       <c r="T4">
-        <v>0.0006999922569462402</v>
+        <v>0.001146865209963633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H5">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I5">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J5">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>165.619910381675</v>
+        <v>113.7957812068875</v>
       </c>
       <c r="R5">
-        <v>993.7194622900502</v>
+        <v>682.7746872413251</v>
       </c>
       <c r="S5">
-        <v>0.001418569523745361</v>
+        <v>0.00117270500973191</v>
       </c>
       <c r="T5">
-        <v>0.001063451202203972</v>
+        <v>0.0008338286307985134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H6">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I6">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J6">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>83.03394344539447</v>
+        <v>112.25527932969</v>
       </c>
       <c r="R6">
-        <v>747.3054910085501</v>
+        <v>1010.29751396721</v>
       </c>
       <c r="S6">
-        <v>0.0007112032685960523</v>
+        <v>0.001156829603370346</v>
       </c>
       <c r="T6">
-        <v>0.0007997457562069023</v>
+        <v>0.001233811107107828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J7">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>24470.71723987769</v>
+        <v>21586.62595898609</v>
       </c>
       <c r="R7">
-        <v>220236.4551588992</v>
+        <v>194279.6336308748</v>
       </c>
       <c r="S7">
-        <v>0.2095968632073451</v>
+        <v>0.2224576705465746</v>
       </c>
       <c r="T7">
-        <v>0.2356909891531443</v>
+        <v>0.2372611696502628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J8">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>26187.19214084577</v>
@@ -948,10 +948,10 @@
         <v>235684.7292676119</v>
       </c>
       <c r="S8">
-        <v>0.2242988333821616</v>
+        <v>0.2698681013362839</v>
       </c>
       <c r="T8">
-        <v>0.2522233066696264</v>
+        <v>0.2878265389412004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J9">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>13149.44468809419</v>
+        <v>14783.96769702728</v>
       </c>
       <c r="R9">
-        <v>118345.0021928477</v>
+        <v>133055.7092732456</v>
       </c>
       <c r="S9">
-        <v>0.1126277719008454</v>
+        <v>0.1523539167985366</v>
       </c>
       <c r="T9">
-        <v>0.126649562208213</v>
+        <v>0.1624923447755496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>177.042969</v>
       </c>
       <c r="H10">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I10">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J10">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>29965.60166866754</v>
+        <v>16123.03098326516</v>
       </c>
       <c r="R10">
-        <v>179793.6100120052</v>
+        <v>96738.18589959099</v>
       </c>
       <c r="S10">
-        <v>0.256661709270966</v>
+        <v>0.1661534285859225</v>
       </c>
       <c r="T10">
-        <v>0.1924101700446021</v>
+        <v>0.1181400989256033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>177.042969</v>
       </c>
       <c r="H11">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I11">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J11">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>15023.3270174421</v>
+        <v>15904.76665718547</v>
       </c>
       <c r="R11">
-        <v>135209.9431569789</v>
+        <v>143142.8999146692</v>
       </c>
       <c r="S11">
-        <v>0.1286779699559703</v>
+        <v>0.1639041389732077</v>
       </c>
       <c r="T11">
-        <v>0.1446979575793498</v>
+        <v>0.1748111792583063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H12">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I12">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J12">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>8.406807281172446</v>
+        <v>8.595610313282998</v>
       </c>
       <c r="R12">
-        <v>75.66126553055201</v>
+        <v>77.36049281954699</v>
       </c>
       <c r="S12">
-        <v>7.200608051042241E-05</v>
+        <v>8.85807467481065E-05</v>
       </c>
       <c r="T12">
-        <v>8.097060271247257E-05</v>
+        <v>9.447537381071921E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H13">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I13">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J13">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>8.996494684036668</v>
+        <v>10.42751652201</v>
       </c>
       <c r="R13">
-        <v>80.96845215633002</v>
+        <v>93.84764869808998</v>
       </c>
       <c r="S13">
-        <v>7.705687770208841E-05</v>
+        <v>0.0001074591758563652</v>
       </c>
       <c r="T13">
-        <v>8.665020768317313E-05</v>
+        <v>0.0001146100725171289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H14">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I14">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J14">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>4.517433888987111</v>
+        <v>5.886849823092</v>
       </c>
       <c r="R14">
-        <v>40.656905000884</v>
+        <v>52.981648407828</v>
       </c>
       <c r="S14">
-        <v>3.869277567946715E-05</v>
+        <v>6.066603002204756E-05</v>
       </c>
       <c r="T14">
-        <v>4.35099000692237E-05</v>
+        <v>6.470306555716378E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H15">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I15">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J15">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>10.2945506591995</v>
+        <v>6.4200534008625</v>
       </c>
       <c r="R15">
-        <v>61.76730395519701</v>
+        <v>38.520320405175</v>
       </c>
       <c r="S15">
-        <v>8.817500137597552E-05</v>
+        <v>6.616087789977008E-05</v>
       </c>
       <c r="T15">
-        <v>6.610166766450997E-05</v>
+        <v>4.704237960423187E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H16">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I16">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J16">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>5.161197921565224</v>
+        <v>6.333142408109999</v>
       </c>
       <c r="R16">
-        <v>46.45078129408701</v>
+        <v>56.99828167299</v>
       </c>
       <c r="S16">
-        <v>4.420675062966595E-05</v>
+        <v>6.526522996343461E-05</v>
       </c>
       <c r="T16">
-        <v>4.971034691890952E-05</v>
+        <v>6.960832036302338E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H17">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I17">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J17">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>1639.787343835073</v>
+        <v>392.5917015898245</v>
       </c>
       <c r="R17">
-        <v>9838.724063010441</v>
+        <v>2355.550209538947</v>
       </c>
       <c r="S17">
-        <v>0.01404512504581797</v>
+        <v>0.004045793704746732</v>
       </c>
       <c r="T17">
-        <v>0.01052913154065572</v>
+        <v>0.00287668134554437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H18">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I18">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J18">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>1754.808648320225</v>
+        <v>476.2612898360149</v>
       </c>
       <c r="R18">
-        <v>10528.85188992135</v>
+        <v>2857.567739016089</v>
       </c>
       <c r="S18">
-        <v>0.01503030681984534</v>
+        <v>0.004908037842955389</v>
       </c>
       <c r="T18">
-        <v>0.01126768733537819</v>
+        <v>0.003489762933164543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H19">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I19">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J19">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>881.1467504866632</v>
+        <v>268.8730997355713</v>
       </c>
       <c r="R19">
-        <v>5286.880502919979</v>
+        <v>1613.238598413428</v>
       </c>
       <c r="S19">
-        <v>0.007547208082090241</v>
+        <v>0.002770830585263979</v>
       </c>
       <c r="T19">
-        <v>0.005657873917234326</v>
+        <v>0.001970144114600043</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H20">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I20">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J20">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>2008.000578201679</v>
+        <v>293.2263791725438</v>
       </c>
       <c r="R20">
-        <v>8032.002312806715</v>
+        <v>1172.905516690175</v>
       </c>
       <c r="S20">
-        <v>0.01719894919237401</v>
+        <v>0.003021799579863316</v>
       </c>
       <c r="T20">
-        <v>0.008595627679440804</v>
+        <v>0.001432393759337067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H21">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I21">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J21">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1006.715956218544</v>
+        <v>289.256848995165</v>
       </c>
       <c r="R21">
-        <v>6040.295737311266</v>
+        <v>1735.54109397099</v>
       </c>
       <c r="S21">
-        <v>0.00862273485880239</v>
+        <v>0.002980892194054075</v>
       </c>
       <c r="T21">
-        <v>0.006464158152551373</v>
+        <v>0.002119504253925124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H22">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I22">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J22">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>5.829251704848</v>
+        <v>5.926224430356</v>
       </c>
       <c r="R22">
-        <v>52.463265343632</v>
+        <v>53.33601987320399</v>
       </c>
       <c r="S22">
-        <v>4.99287724264643E-05</v>
+        <v>6.107179901194332E-05</v>
       </c>
       <c r="T22">
-        <v>5.614474176912786E-05</v>
+        <v>6.513583654192657E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H23">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I23">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J23">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>6.23813895342</v>
+        <v>7.189228095319999</v>
       </c>
       <c r="R23">
-        <v>56.14325058078</v>
+        <v>64.70305285788</v>
       </c>
       <c r="S23">
-        <v>5.343097809808693E-05</v>
+        <v>7.408749001124548E-05</v>
       </c>
       <c r="T23">
-        <v>6.008296062570454E-05</v>
+        <v>7.901765982414192E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H24">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I24">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J24">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>3.132373363415999</v>
+        <v>4.058675529477333</v>
       </c>
       <c r="R24">
-        <v>28.191360270744</v>
+        <v>36.528079765296</v>
       </c>
       <c r="S24">
-        <v>2.682943964945739E-05</v>
+        <v>4.182605959390611E-05</v>
       </c>
       <c r="T24">
-        <v>3.016961739140952E-05</v>
+        <v>4.460938477297458E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H25">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I25">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J25">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>7.138206571617</v>
+        <v>4.42629155135</v>
       </c>
       <c r="R25">
-        <v>42.829239429702</v>
+        <v>26.5577493081</v>
       </c>
       <c r="S25">
-        <v>6.114024740962022E-05</v>
+        <v>4.56144702532083E-05</v>
       </c>
       <c r="T25">
-        <v>4.58346725503742E-05</v>
+        <v>3.243326408618929E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H26">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I26">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J26">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>3.578757163938</v>
+        <v>4.36637096052</v>
       </c>
       <c r="R26">
-        <v>32.208814475442</v>
+        <v>39.29733864468</v>
       </c>
       <c r="S26">
-        <v>3.06528112106112E-05</v>
+        <v>4.49969677737035E-05</v>
       </c>
       <c r="T26">
-        <v>3.446898624339892E-05</v>
+        <v>4.799130179900406E-05</v>
       </c>
     </row>
   </sheetData>
